--- a/outputs/thatcher_out_sheet_vgg.xlsx
+++ b/outputs/thatcher_out_sheet_vgg.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ynaho\PycharmProjects\galit_project\psychology_project\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48F8A7E-B88A-4AD0-803A-96272336C409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64B56CA-5FB2-49D8-BE0E-C8414E07C846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -49,10 +62,10 @@
     <t>img1_t.jpeg</t>
   </si>
   <si>
-    <t>img1.jpeg.inv</t>
-  </si>
-  <si>
-    <t>img1_t.jpeg.inv</t>
+    <t>img1_u.jpeg</t>
+  </si>
+  <si>
+    <t>img1_ut.jpeg</t>
   </si>
   <si>
     <t>img10.jpeg</t>
@@ -61,10 +74,10 @@
     <t>img10_t.jpeg</t>
   </si>
   <si>
-    <t>img10.jpeg.inv</t>
-  </si>
-  <si>
-    <t>img10_t.jpeg.inv</t>
+    <t>img10_u.jpeg</t>
+  </si>
+  <si>
+    <t>img10_ut.jpeg</t>
   </si>
   <si>
     <t>img11.jpeg</t>
@@ -73,10 +86,10 @@
     <t>img11_t.jpeg</t>
   </si>
   <si>
-    <t>img11.jpeg.inv</t>
-  </si>
-  <si>
-    <t>img11_t.jpeg.inv</t>
+    <t>img11_u.jpeg</t>
+  </si>
+  <si>
+    <t>img11_ut.jpeg</t>
   </si>
   <si>
     <t>img12.jpeg</t>
@@ -85,10 +98,10 @@
     <t>img12_t.jpeg</t>
   </si>
   <si>
-    <t>img12.jpeg.inv</t>
-  </si>
-  <si>
-    <t>img12_t.jpeg.inv</t>
+    <t>img12_u.jpeg</t>
+  </si>
+  <si>
+    <t>img12_ut.jpeg</t>
   </si>
   <si>
     <t>img13.jpeg</t>
@@ -97,10 +110,10 @@
     <t>img13_t.jpeg</t>
   </si>
   <si>
-    <t>img13.jpeg.inv</t>
-  </si>
-  <si>
-    <t>img13_t.jpeg.inv</t>
+    <t>img13_u.jpeg</t>
+  </si>
+  <si>
+    <t>img13_ut.jpeg</t>
   </si>
   <si>
     <t>img14.jpeg</t>
@@ -109,10 +122,10 @@
     <t>img14_t.jpeg</t>
   </si>
   <si>
-    <t>img14.jpeg.inv</t>
-  </si>
-  <si>
-    <t>img14_t.jpeg.inv</t>
+    <t>img14_u.jpeg</t>
+  </si>
+  <si>
+    <t>img14_ut.jpeg</t>
   </si>
   <si>
     <t>img15.jpg</t>
@@ -121,10 +134,10 @@
     <t>img15_t.JPG</t>
   </si>
   <si>
-    <t>img15.jpg.inv</t>
-  </si>
-  <si>
-    <t>img15_t.JPG.inv</t>
+    <t>img15_u.jpg</t>
+  </si>
+  <si>
+    <t>img15_ut.JPG</t>
   </si>
   <si>
     <t>img16.jpg</t>
@@ -133,10 +146,10 @@
     <t>img16_t.jpg</t>
   </si>
   <si>
-    <t>img16.jpg.inv</t>
-  </si>
-  <si>
-    <t>img16_t.jpg.inv</t>
+    <t>img16_u.jpg</t>
+  </si>
+  <si>
+    <t>img16_ut.jpg</t>
   </si>
   <si>
     <t>img17.jpg</t>
@@ -145,10 +158,10 @@
     <t>img17_t.JPG</t>
   </si>
   <si>
-    <t>img17.jpg.inv</t>
-  </si>
-  <si>
-    <t>img17_t.JPG.inv</t>
+    <t>img17_u.jpg</t>
+  </si>
+  <si>
+    <t>img17_ut.JPG</t>
   </si>
   <si>
     <t>img18.JPG</t>
@@ -157,10 +170,10 @@
     <t>img18_t.JPG</t>
   </si>
   <si>
-    <t>img18.JPG.inv</t>
-  </si>
-  <si>
-    <t>img18_t.JPG.inv</t>
+    <t>img18_u.JPG</t>
+  </si>
+  <si>
+    <t>img18_ut.JPG</t>
   </si>
   <si>
     <t>img19.jpg</t>
@@ -169,10 +182,10 @@
     <t>img19_t.jpg</t>
   </si>
   <si>
-    <t>img19.jpg.inv</t>
-  </si>
-  <si>
-    <t>img19_t.jpg.inv</t>
+    <t>img19_u.jpg</t>
+  </si>
+  <si>
+    <t>img19_ut.jpg</t>
   </si>
   <si>
     <t>img2.jpeg</t>
@@ -181,10 +194,10 @@
     <t>img2_t.jpeg</t>
   </si>
   <si>
-    <t>img2.jpeg.inv</t>
-  </si>
-  <si>
-    <t>img2_t.jpeg.inv</t>
+    <t>img2_u.jpeg</t>
+  </si>
+  <si>
+    <t>img2_ut.jpeg</t>
   </si>
   <si>
     <t>img20.JPG</t>
@@ -193,10 +206,10 @@
     <t>img20_t.JPG</t>
   </si>
   <si>
-    <t>img20.JPG.inv</t>
-  </si>
-  <si>
-    <t>img20_t.JPG.inv</t>
+    <t>img20_u.JPG</t>
+  </si>
+  <si>
+    <t>img20_ut.JPG</t>
   </si>
   <si>
     <t>img21.jpg</t>
@@ -205,10 +218,10 @@
     <t>img21_t.JPG</t>
   </si>
   <si>
-    <t>img21.jpg.inv</t>
-  </si>
-  <si>
-    <t>img21_t.JPG.inv</t>
+    <t>img21_u.jpg</t>
+  </si>
+  <si>
+    <t>img21_ut.JPG</t>
   </si>
   <si>
     <t>img22.jpg</t>
@@ -217,10 +230,10 @@
     <t>img22_t.jpg</t>
   </si>
   <si>
-    <t>img22.jpg.inv</t>
-  </si>
-  <si>
-    <t>img22_t.jpg.inv</t>
+    <t>img22_u.jpg</t>
+  </si>
+  <si>
+    <t>img22_ut.jpg</t>
   </si>
   <si>
     <t>img23.jpeg</t>
@@ -229,10 +242,10 @@
     <t>img23_t.jpeg</t>
   </si>
   <si>
-    <t>img23.jpeg.inv</t>
-  </si>
-  <si>
-    <t>img23_t.jpeg.inv</t>
+    <t>img23_u.jpeg</t>
+  </si>
+  <si>
+    <t>img23_ut.jpeg</t>
   </si>
   <si>
     <t>img24.jpeg</t>
@@ -241,10 +254,10 @@
     <t>img24_t.jpeg</t>
   </si>
   <si>
-    <t>img24.jpeg.inv</t>
-  </si>
-  <si>
-    <t>img24_t.jpeg.inv</t>
+    <t>img24_u.jpeg</t>
+  </si>
+  <si>
+    <t>img24_ut.jpeg</t>
   </si>
   <si>
     <t>img3.jpeg</t>
@@ -253,10 +266,10 @@
     <t>img3_t.jpeg</t>
   </si>
   <si>
-    <t>img3.jpeg.inv</t>
-  </si>
-  <si>
-    <t>img3_t.jpeg.inv</t>
+    <t>img3_u.jpeg</t>
+  </si>
+  <si>
+    <t>img3_ut.jpeg</t>
   </si>
   <si>
     <t>img4.jpeg</t>
@@ -265,10 +278,10 @@
     <t>img4_t.jpeg</t>
   </si>
   <si>
-    <t>img4.jpeg.inv</t>
-  </si>
-  <si>
-    <t>img4_t.jpeg.inv</t>
+    <t>img4_u.jpeg</t>
+  </si>
+  <si>
+    <t>img4_ut.jpeg</t>
   </si>
   <si>
     <t>img5.jpeg</t>
@@ -277,10 +290,10 @@
     <t>img5_t.jpeg</t>
   </si>
   <si>
-    <t>img5.jpeg.inv</t>
-  </si>
-  <si>
-    <t>img5_t.jpeg.inv</t>
+    <t>img5_u.jpeg</t>
+  </si>
+  <si>
+    <t>img5_ut.jpeg</t>
   </si>
   <si>
     <t>img6.jpeg</t>
@@ -289,10 +302,10 @@
     <t>img6_t.jpeg</t>
   </si>
   <si>
-    <t>img6.jpeg.inv</t>
-  </si>
-  <si>
-    <t>img6_t.jpeg.inv</t>
+    <t>img6_u.jpeg</t>
+  </si>
+  <si>
+    <t>img6_ut.jpeg</t>
   </si>
   <si>
     <t>img7.jpeg</t>
@@ -301,10 +314,10 @@
     <t>img7_t.jpeg</t>
   </si>
   <si>
-    <t>img7.jpeg.inv</t>
-  </si>
-  <si>
-    <t>img7_t.jpeg.inv</t>
+    <t>img7_u.jpeg</t>
+  </si>
+  <si>
+    <t>img7_ut.jpeg</t>
   </si>
   <si>
     <t>img8.jpeg</t>
@@ -313,10 +326,10 @@
     <t>img8_t.jpeg</t>
   </si>
   <si>
-    <t>img8.jpeg.inv</t>
-  </si>
-  <si>
-    <t>img8_t.jpeg.inv</t>
+    <t>img8_u.jpeg</t>
+  </si>
+  <si>
+    <t>img8_ut.jpeg</t>
   </si>
   <si>
     <t>img9.jpeg</t>
@@ -325,10 +338,10 @@
     <t>img9_t.jpeg</t>
   </si>
   <si>
-    <t>img9.jpeg.inv</t>
-  </si>
-  <si>
-    <t>img9_t.jpeg.inv</t>
+    <t>img9_u.jpeg</t>
+  </si>
+  <si>
+    <t>img9_ut.jpeg</t>
   </si>
 </sst>
 </file>
@@ -691,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -741,13 +754,13 @@
         <v>10</v>
       </c>
       <c r="E2">
-        <v>3.1775631904602051</v>
+        <v>4.3644728660583496</v>
       </c>
       <c r="F2">
-        <v>3.1775631904602051</v>
+        <v>0.98412442207336426</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.63200653589789224</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -764,13 +777,13 @@
         <v>14</v>
       </c>
       <c r="E3">
-        <v>2.9075441360473628</v>
+        <v>2.6339094638824458</v>
       </c>
       <c r="F3">
-        <v>2.9075441360473628</v>
+        <v>1.985331773757935</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.14040784119251171</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -787,13 +800,13 @@
         <v>18</v>
       </c>
       <c r="E4">
-        <v>2.761421918869019</v>
+        <v>3.6402592658996582</v>
       </c>
       <c r="F4">
-        <v>2.761421918869019</v>
+        <v>1.613810539245605</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.38569124541694699</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -810,13 +823,13 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>5.6468639373779297</v>
+        <v>5.2076668739318848</v>
       </c>
       <c r="F5">
-        <v>5.6468639373779297</v>
+        <v>1.646345257759094</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.51959663154173086</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -833,13 +846,13 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>3.3104262351989751</v>
+        <v>2.6344878673553471</v>
       </c>
       <c r="F6">
-        <v>3.3104262351989751</v>
+        <v>1.51947557926178</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.26842130471841352</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -856,13 +869,13 @@
         <v>30</v>
       </c>
       <c r="E7">
-        <v>2.43828272819519</v>
+        <v>3.972236156463623</v>
       </c>
       <c r="F7">
-        <v>2.43828272819519</v>
+        <v>1.566491961479187</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.43434957335980873</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -879,13 +892,13 @@
         <v>34</v>
       </c>
       <c r="E8">
-        <v>2.4373841285705571</v>
+        <v>3.1652781963348389</v>
       </c>
       <c r="F8">
-        <v>2.4373841285705571</v>
+        <v>1.828522324562073</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.26768307347860942</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -902,13 +915,13 @@
         <v>38</v>
       </c>
       <c r="E9">
-        <v>5.5109543800354004</v>
+        <v>4.5188813209533691</v>
       </c>
       <c r="F9">
-        <v>5.5109543800354004</v>
+        <v>1.959811925888062</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.39499777155106641</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -925,13 +938,13 @@
         <v>42</v>
       </c>
       <c r="E10">
-        <v>4.2177553176879883</v>
+        <v>3.072664737701416</v>
       </c>
       <c r="F10">
-        <v>4.2177553176879883</v>
+        <v>1.7009890079498291</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.28734294585173281</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -948,13 +961,13 @@
         <v>46</v>
       </c>
       <c r="E11">
-        <v>2.6859157085418701</v>
+        <v>4.7032299041748047</v>
       </c>
       <c r="F11">
-        <v>2.6859157085418701</v>
+        <v>2.1813793182373051</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.36630264761112152</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -971,13 +984,13 @@
         <v>50</v>
       </c>
       <c r="E12">
-        <v>1.7231847047805791</v>
+        <v>2.9135422706603999</v>
       </c>
       <c r="F12">
-        <v>1.7231847047805791</v>
+        <v>1.036467552185059</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.47520760774289872</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -994,13 +1007,13 @@
         <v>54</v>
       </c>
       <c r="E13">
-        <v>4.4379549026489258</v>
+        <v>4.0763263702392578</v>
       </c>
       <c r="F13">
-        <v>4.4379549026489258</v>
+        <v>1.4833581447601321</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.46638765535770882</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1017,13 +1030,13 @@
         <v>58</v>
       </c>
       <c r="E14">
-        <v>4.8524761199951172</v>
+        <v>4.9466719627380371</v>
       </c>
       <c r="F14">
-        <v>4.8524761199951172</v>
+        <v>1.2589153051376341</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.59426392675045159</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1040,13 +1053,13 @@
         <v>62</v>
       </c>
       <c r="E15">
-        <v>6.4313011169433594</v>
+        <v>5.6109557151794434</v>
       </c>
       <c r="F15">
-        <v>6.4313011169433594</v>
+        <v>1.6824860572814939</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.53863042723276766</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1063,13 +1076,13 @@
         <v>66</v>
       </c>
       <c r="E16">
-        <v>2.45866847038269</v>
+        <v>4.2232298851013184</v>
       </c>
       <c r="F16">
-        <v>2.45866847038269</v>
+        <v>1.889803528785706</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.38171333253548889</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1086,13 +1099,13 @@
         <v>70</v>
       </c>
       <c r="E17">
-        <v>3.8835668563842769</v>
+        <v>2.5549767017364502</v>
       </c>
       <c r="F17">
-        <v>3.8835668563842769</v>
+        <v>1.8891745805740361</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.1498153593043908</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1109,13 +1122,13 @@
         <v>74</v>
       </c>
       <c r="E18">
-        <v>4.5644125938415527</v>
+        <v>2.687114953994751</v>
       </c>
       <c r="F18">
-        <v>4.5644125938415527</v>
+        <v>1.7446585893630979</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.21265896269545759</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1132,13 +1145,13 @@
         <v>78</v>
       </c>
       <c r="E19">
-        <v>4.0262260437011719</v>
+        <v>4.5872302055358887</v>
       </c>
       <c r="F19">
-        <v>4.0262260437011719</v>
+        <v>1.2485669851303101</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.57210062504321635</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1155,13 +1168,13 @@
         <v>82</v>
       </c>
       <c r="E20">
-        <v>5.2099480628967294</v>
+        <v>5.2056365013122559</v>
       </c>
       <c r="F20">
-        <v>5.2099480628967294</v>
+        <v>2.101976633071899</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.42471595186626082</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1178,13 +1191,13 @@
         <v>86</v>
       </c>
       <c r="E21">
-        <v>6.3362197875976563</v>
+        <v>3.5838909149169922</v>
       </c>
       <c r="F21">
-        <v>6.3362197875976563</v>
+        <v>1.7237173318862919</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.35047303729529472</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1201,13 +1214,13 @@
         <v>90</v>
       </c>
       <c r="E22">
-        <v>5.9259467124938956</v>
+        <v>6.4571385383605957</v>
       </c>
       <c r="F22">
-        <v>5.9259467124938956</v>
+        <v>1.9746367931365969</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.5316201593369615</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1224,13 +1237,13 @@
         <v>94</v>
       </c>
       <c r="E23">
-        <v>4.7977471351623544</v>
+        <v>3.910432100296021</v>
       </c>
       <c r="F23">
-        <v>4.7977471351623544</v>
+        <v>1.7888084650039671</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.37226427117493999</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1247,13 +1260,13 @@
         <v>98</v>
       </c>
       <c r="E24">
-        <v>3.3358135223388672</v>
+        <v>4.7151951789855957</v>
       </c>
       <c r="F24">
-        <v>3.3358135223388672</v>
+        <v>2.4071497917175289</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.32405694988966732</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1270,13 +1283,13 @@
         <v>102</v>
       </c>
       <c r="E25">
-        <v>5.7915730476379386</v>
+        <v>2.391342401504517</v>
       </c>
       <c r="F25">
-        <v>5.7915730476379386</v>
+        <v>1.3744127750396731</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.27004666495554652</v>
       </c>
     </row>
   </sheetData>
